--- a/Data/03_Arbeid og næringsliv/01_Arbeidsliv/NAV/Nedsatt arbeidsevne/2025-02-17.xlsx
+++ b/Data/03_Arbeid og næringsliv/01_Arbeidsliv/NAV/Nedsatt arbeidsevne/2025-02-17.xlsx
@@ -1,6 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <workbookPr defaultThemeVersion="202300"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://telemarkfylke-my.sharepoint.com/personal/even_sannes_riiser_telemarkfylke_no/Documents/Github/Telemark/Data/03_Arbeid og næringsliv/01_Arbeidsliv/NAV/Nedsatt arbeidsevne/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="316" documentId="11_C7E0A5FD0EE69EFD6CC1A12ED10206B394690D7F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{745A7362-DC62-431E-811A-1CD4BB5997E9}"/>
+  <bookViews>
+    <workbookView xWindow="19740" yWindow="0" windowWidth="37290" windowHeight="20985" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="Nedsatt 18 - 66 år fylker" sheetId="1" r:id="rId1"/>
     <sheet name="Nedsatt 18 - 66 år landet" sheetId="2" r:id="rId2"/>
@@ -9,6 +20,20 @@
     <sheet name="Nedsatt 18 - 29 år landet" sheetId="5" r:id="rId5"/>
     <sheet name="Nedsatt 18 - 29 år Telemark" sheetId="6" r:id="rId6"/>
   </sheets>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -168,13 +193,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
-    <numFmt numFmtId="172" formatCode="0"/>
-    <numFmt numFmtId="173" formatCode="General"/>
-    <numFmt numFmtId="174" formatCode="#,##0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -182,13 +206,19 @@
     </font>
     <font>
       <sz val="9"/>
-      <color rgb="00333333"/>
+      <color rgb="FF333333"/>
       <name val="Arial"/>
     </font>
     <font>
       <sz val="9"/>
-      <color rgb="002D2926"/>
+      <color rgb="FF2D2926"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -196,10 +226,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="00000000"/>
-        <bgColor rgb="00000000"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -230,16 +257,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="00DDDDDD"/>
+        <color rgb="FFDDDDDD"/>
       </left>
       <right style="thin">
-        <color rgb="00DDDDDD"/>
+        <color rgb="FFDDDDDD"/>
       </right>
       <top style="thin">
-        <color rgb="00DDDDDD"/>
+        <color rgb="FFDDDDDD"/>
       </top>
       <bottom style="thin">
-        <color rgb="00DDDDDD"/>
+        <color rgb="FFDDDDDD"/>
       </bottom>
       <diagonal/>
     </border>
@@ -247,71 +274,435 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom"/>
+  <cellXfs count="22">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom"/>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="172" fontId="1" fillId="2" borderId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="173" fontId="1" fillId="2" borderId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="174" fontId="1" fillId="2" borderId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="172" fontId="1" fillId="4" borderId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf numFmtId="1" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="173" fontId="1" fillId="4" borderId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="0E2841"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E8E8E8"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="156082"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="E97132"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="196B24"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="0F9ED5"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="A02B93"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="4EA72E"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="467886"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="96607D"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S33"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N27" sqref="N27"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.4999666666667" customWidth="1"/>
-    <col min="2" max="3" width="10.7163133333333" customWidth="1"/>
-    <col min="4" max="4" width="29.9007666666667" customWidth="1"/>
-    <col min="5" max="5" width="10.7163133333333" customWidth="1"/>
-    <col min="6" max="6" width="13.8345" customWidth="1"/>
-    <col min="7" max="7" width="18.1125" customWidth="1"/>
-    <col min="8" max="8" width="24.9573" customWidth="1"/>
-    <col min="9" max="9" width="12.5986333333333" customWidth="1"/>
-    <col min="10" max="10" width="5.69679333333333" customWidth="1"/>
-    <col min="11" max="11" width="14.4999666666667" customWidth="1"/>
-    <col min="12" max="13" width="10.7163133333333" customWidth="1"/>
-    <col min="14" max="14" width="29.9007666666667" customWidth="1"/>
-    <col min="15" max="15" width="12.5986333333333" customWidth="1"/>
-    <col min="16" max="16" width="13.8345" customWidth="1"/>
-    <col min="17" max="17" width="18.1125" customWidth="1"/>
-    <col min="18" max="18" width="24.9573" customWidth="1"/>
-    <col min="19" max="19" width="12.5986333333333" customWidth="1"/>
-    <col min="20" max="20" width="4.67767866666667" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" customWidth="1"/>
+    <col min="2" max="3" width="10.7109375" customWidth="1"/>
+    <col min="4" max="4" width="29.85546875" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" customWidth="1"/>
+    <col min="7" max="7" width="18.140625" customWidth="1"/>
+    <col min="8" max="8" width="25" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" customWidth="1"/>
+    <col min="10" max="10" width="5.7109375" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" customWidth="1"/>
+    <col min="12" max="13" width="10.7109375" customWidth="1"/>
+    <col min="14" max="14" width="29.85546875" customWidth="1"/>
+    <col min="15" max="15" width="12.5703125" customWidth="1"/>
+    <col min="16" max="16" width="13.85546875" customWidth="1"/>
+    <col min="17" max="17" width="18.140625" customWidth="1"/>
+    <col min="18" max="18" width="25" customWidth="1"/>
+    <col min="19" max="19" width="12.5703125" customWidth="1"/>
+    <col min="20" max="20" width="4.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="6.3996" customHeight="1"/>
-    <row r="2" s="1" customFormat="1" ht="23.9985" customHeight="1">
+    <row r="1" spans="1:19" s="1" customFormat="1" ht="6.4" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="1:19" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -363,7 +754,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="3" spans="1:19" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -385,7 +776,9 @@
       <c r="G3" s="7">
         <v>8937</v>
       </c>
-      <c r="H3" s="5"/>
+      <c r="H3" s="13">
+        <v>9.0520515755249225</v>
+      </c>
       <c r="I3" s="5">
         <v>202501</v>
       </c>
@@ -410,12 +803,14 @@
       <c r="Q3" s="7">
         <v>16150</v>
       </c>
-      <c r="R3" s="5"/>
+      <c r="R3" s="11">
+        <v>8.0604911159912156</v>
+      </c>
       <c r="S3" s="5">
         <v>202501</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="4" spans="1:19" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>1</v>
       </c>
@@ -437,7 +832,9 @@
       <c r="G4" s="7">
         <v>7213</v>
       </c>
-      <c r="H4" s="5"/>
+      <c r="H4" s="13">
+        <v>7.0972439511566359</v>
+      </c>
       <c r="I4" s="5">
         <v>202501</v>
       </c>
@@ -462,12 +859,14 @@
       <c r="Q4" s="7">
         <v>28542</v>
       </c>
-      <c r="R4" s="5"/>
+      <c r="R4" s="11">
+        <v>6.0979101059261378</v>
+      </c>
       <c r="S4" s="5">
         <v>202501</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="5" spans="1:19" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>1</v>
       </c>
@@ -489,7 +888,9 @@
       <c r="G5" s="7">
         <v>16222</v>
       </c>
-      <c r="H5" s="5"/>
+      <c r="H5" s="13">
+        <v>7.0728166134018151</v>
+      </c>
       <c r="I5" s="5">
         <v>202501</v>
       </c>
@@ -514,12 +915,14 @@
       <c r="Q5" s="7">
         <v>11938</v>
       </c>
-      <c r="R5" s="5"/>
+      <c r="R5" s="11">
+        <v>7.020824879290978</v>
+      </c>
       <c r="S5" s="5">
         <v>202501</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="6" spans="1:19" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>1</v>
       </c>
@@ -541,7 +944,9 @@
       <c r="G6" s="7">
         <v>12320</v>
       </c>
-      <c r="H6" s="5"/>
+      <c r="H6" s="13">
+        <v>5.1611822123541611</v>
+      </c>
       <c r="I6" s="5">
         <v>202501</v>
       </c>
@@ -566,12 +971,14 @@
       <c r="Q6" s="7">
         <v>3016</v>
       </c>
-      <c r="R6" s="5"/>
+      <c r="R6" s="11">
+        <v>6.3090954731821611</v>
+      </c>
       <c r="S6" s="5">
         <v>202501</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="7" spans="1:19" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>1</v>
       </c>
@@ -593,7 +1000,9 @@
       <c r="G7" s="7">
         <v>6585</v>
       </c>
-      <c r="H7" s="5"/>
+      <c r="H7" s="13">
+        <v>7.9507860230373568</v>
+      </c>
       <c r="I7" s="5">
         <v>202501</v>
       </c>
@@ -618,12 +1027,14 @@
       <c r="Q7" s="7">
         <v>15064</v>
       </c>
-      <c r="R7" s="5"/>
+      <c r="R7" s="11">
+        <v>6.5639488269948059</v>
+      </c>
       <c r="S7" s="5">
         <v>202501</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="8" spans="1:19" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>1</v>
       </c>
@@ -645,7 +1056,9 @@
       <c r="G8" s="7">
         <v>5353</v>
       </c>
-      <c r="H8" s="5"/>
+      <c r="H8" s="13">
+        <v>6.1377056698962331</v>
+      </c>
       <c r="I8" s="5">
         <v>202501</v>
       </c>
@@ -670,12 +1083,14 @@
       <c r="Q8" s="7">
         <v>11318</v>
       </c>
-      <c r="R8" s="5"/>
+      <c r="R8" s="11">
+        <v>6.8251852834580617</v>
+      </c>
       <c r="S8" s="5">
         <v>202501</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="9" spans="1:19" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>1</v>
       </c>
@@ -697,7 +1112,9 @@
       <c r="G9" s="7">
         <v>1502</v>
       </c>
-      <c r="H9" s="5"/>
+      <c r="H9" s="13">
+        <v>6.5805038335158814</v>
+      </c>
       <c r="I9" s="5">
         <v>202501</v>
       </c>
@@ -722,12 +1139,14 @@
       <c r="Q9" s="7">
         <v>10185</v>
       </c>
-      <c r="R9" s="5"/>
+      <c r="R9" s="11">
+        <v>6.8370847234622429</v>
+      </c>
       <c r="S9" s="5">
         <v>202501</v>
       </c>
     </row>
-    <row r="10" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="10" spans="1:19" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>1</v>
       </c>
@@ -749,7 +1168,9 @@
       <c r="G10" s="7">
         <v>1514</v>
       </c>
-      <c r="H10" s="5"/>
+      <c r="H10" s="13">
+        <v>6.0610913167060332</v>
+      </c>
       <c r="I10" s="5">
         <v>202501</v>
       </c>
@@ -774,12 +1195,14 @@
       <c r="Q10" s="7">
         <v>32091</v>
       </c>
-      <c r="R10" s="5"/>
+      <c r="R10" s="11">
+        <v>6.325767879741222</v>
+      </c>
       <c r="S10" s="5">
         <v>202501</v>
       </c>
     </row>
-    <row r="11" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="11" spans="1:19" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>1</v>
       </c>
@@ -801,7 +1224,9 @@
       <c r="G11" s="7">
         <v>8360</v>
       </c>
-      <c r="H11" s="5"/>
+      <c r="H11" s="13">
+        <v>7.4027503519848405</v>
+      </c>
       <c r="I11" s="5">
         <v>202501</v>
       </c>
@@ -826,12 +1251,14 @@
       <c r="Q11" s="7">
         <v>19456</v>
       </c>
-      <c r="R11" s="5"/>
+      <c r="R11" s="11">
+        <v>6.098046406083002</v>
+      </c>
       <c r="S11" s="5">
         <v>202501</v>
       </c>
     </row>
-    <row r="12" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="12" spans="1:19" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>1</v>
       </c>
@@ -853,7 +1280,9 @@
       <c r="G12" s="7">
         <v>6704</v>
       </c>
-      <c r="H12" s="5"/>
+      <c r="H12" s="13">
+        <v>5.7512975593016771</v>
+      </c>
       <c r="I12" s="5">
         <v>202501</v>
       </c>
@@ -878,12 +1307,14 @@
       <c r="Q12" s="7">
         <v>7382</v>
       </c>
-      <c r="R12" s="5"/>
+      <c r="R12" s="11">
+        <v>6.8068861861335748</v>
+      </c>
       <c r="S12" s="5">
         <v>202501</v>
       </c>
     </row>
-    <row r="13" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="13" spans="1:19" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>1</v>
       </c>
@@ -905,7 +1336,9 @@
       <c r="G13" s="7">
         <v>6353</v>
       </c>
-      <c r="H13" s="5"/>
+      <c r="H13" s="13">
+        <v>7.9272781722214596</v>
+      </c>
       <c r="I13" s="5">
         <v>202501</v>
       </c>
@@ -930,12 +1363,14 @@
       <c r="Q13" s="7">
         <v>6955</v>
       </c>
-      <c r="R13" s="5"/>
+      <c r="R13" s="11">
+        <v>6.4196642021801935</v>
+      </c>
       <c r="S13" s="5">
         <v>202501</v>
       </c>
     </row>
-    <row r="14" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="14" spans="1:19" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>1</v>
       </c>
@@ -957,7 +1392,9 @@
       <c r="G14" s="7">
         <v>4965</v>
       </c>
-      <c r="H14" s="5"/>
+      <c r="H14" s="13">
+        <v>5.7944121560114841</v>
+      </c>
       <c r="I14" s="5">
         <v>202501</v>
       </c>
@@ -982,12 +1419,14 @@
       <c r="Q14" s="7">
         <v>19435</v>
       </c>
-      <c r="R14" s="5"/>
+      <c r="R14" s="11">
+        <v>6.3049677371216122</v>
+      </c>
       <c r="S14" s="5">
         <v>202501</v>
       </c>
     </row>
-    <row r="15" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="15" spans="1:19" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>1</v>
       </c>
@@ -1009,7 +1448,9 @@
       <c r="G15" s="7">
         <v>5651</v>
       </c>
-      <c r="H15" s="5"/>
+      <c r="H15" s="13">
+        <v>7.7683382821950948</v>
+      </c>
       <c r="I15" s="5">
         <v>202501</v>
       </c>
@@ -1034,12 +1475,14 @@
       <c r="Q15" s="7">
         <v>10883</v>
       </c>
-      <c r="R15" s="5"/>
+      <c r="R15" s="11">
+        <v>6.8510742771528035</v>
+      </c>
       <c r="S15" s="5">
         <v>202501</v>
       </c>
     </row>
-    <row r="16" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="16" spans="1:19" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>1</v>
       </c>
@@ -1061,7 +1504,9 @@
       <c r="G16" s="7">
         <v>4534</v>
       </c>
-      <c r="H16" s="5"/>
+      <c r="H16" s="13">
+        <v>5.9483358041536016</v>
+      </c>
       <c r="I16" s="5">
         <v>202501</v>
       </c>
@@ -1086,12 +1531,14 @@
       <c r="Q16" s="7">
         <v>24467</v>
       </c>
-      <c r="R16" s="5"/>
+      <c r="R16" s="11">
+        <v>5.9341128420051854</v>
+      </c>
       <c r="S16" s="5">
         <v>202501</v>
       </c>
     </row>
-    <row r="17" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="17" spans="1:19" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>1</v>
       </c>
@@ -1113,7 +1560,9 @@
       <c r="G17" s="7">
         <v>18054</v>
       </c>
-      <c r="H17" s="5"/>
+      <c r="H17" s="13">
+        <v>7.1551713888261386</v>
+      </c>
       <c r="I17" s="5">
         <v>202501</v>
       </c>
@@ -1138,12 +1587,14 @@
       <c r="Q17" s="7">
         <v>17821</v>
       </c>
-      <c r="R17" s="5"/>
+      <c r="R17" s="11">
+        <v>9.1214798284316245</v>
+      </c>
       <c r="S17" s="5">
         <v>202501</v>
       </c>
     </row>
-    <row r="18" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="18" spans="1:19" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>1</v>
       </c>
@@ -1165,12 +1616,14 @@
       <c r="G18" s="7">
         <v>14037</v>
       </c>
-      <c r="H18" s="5"/>
+      <c r="H18" s="13">
+        <v>5.5050297076298609</v>
+      </c>
       <c r="I18" s="5">
         <v>202501</v>
       </c>
     </row>
-    <row r="19" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="19" spans="1:19" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>1</v>
       </c>
@@ -1192,12 +1645,14 @@
       <c r="G19" s="7">
         <v>11006</v>
       </c>
-      <c r="H19" s="5"/>
+      <c r="H19" s="13">
+        <v>7.0990421517721805</v>
+      </c>
       <c r="I19" s="5">
         <v>202501</v>
       </c>
     </row>
-    <row r="20" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="20" spans="1:19" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>1</v>
       </c>
@@ -1219,12 +1674,14 @@
       <c r="G20" s="7">
         <v>8450</v>
       </c>
-      <c r="H20" s="5"/>
+      <c r="H20" s="13">
+        <v>5.1518735748515407</v>
+      </c>
       <c r="I20" s="5">
         <v>202501</v>
       </c>
     </row>
-    <row r="21" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="21" spans="1:19" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>1</v>
       </c>
@@ -1246,12 +1703,14 @@
       <c r="G21" s="7">
         <v>4026</v>
       </c>
-      <c r="H21" s="5"/>
+      <c r="H21" s="13">
+        <v>7.5170842824601358</v>
+      </c>
       <c r="I21" s="5">
         <v>202501</v>
       </c>
     </row>
-    <row r="22" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="22" spans="1:19" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>1</v>
       </c>
@@ -1273,12 +1732,14 @@
       <c r="G22" s="7">
         <v>3356</v>
       </c>
-      <c r="H22" s="5"/>
+      <c r="H22" s="13">
+        <v>6.1139348891439393</v>
+      </c>
       <c r="I22" s="5">
         <v>202501</v>
       </c>
     </row>
-    <row r="23" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="23" spans="1:19" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>1</v>
       </c>
@@ -1300,12 +1761,14 @@
       <c r="G23" s="7">
         <v>3830</v>
       </c>
-      <c r="H23" s="5"/>
+      <c r="H23" s="13">
+        <v>7.2668627264965373</v>
+      </c>
       <c r="I23" s="5">
         <v>202501</v>
       </c>
     </row>
-    <row r="24" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="24" spans="1:19" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>1</v>
       </c>
@@ -1327,12 +1790,14 @@
       <c r="G24" s="7">
         <v>3125</v>
       </c>
-      <c r="H24" s="5"/>
+      <c r="H24" s="13">
+        <v>5.6170686989970156</v>
+      </c>
       <c r="I24" s="5">
         <v>202501</v>
       </c>
     </row>
-    <row r="25" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="25" spans="1:19" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>1</v>
       </c>
@@ -1354,12 +1819,14 @@
       <c r="G25" s="7">
         <v>10968</v>
       </c>
-      <c r="H25" s="5"/>
+      <c r="H25" s="13">
+        <v>7.3099532131003313</v>
+      </c>
       <c r="I25" s="5">
         <v>202501</v>
       </c>
     </row>
-    <row r="26" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="26" spans="1:19" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>1</v>
       </c>
@@ -1381,12 +1848,14 @@
       <c r="G26" s="7">
         <v>8467</v>
       </c>
-      <c r="H26" s="5"/>
+      <c r="H26" s="13">
+        <v>5.3518491596452753</v>
+      </c>
       <c r="I26" s="5">
         <v>202501</v>
       </c>
     </row>
-    <row r="27" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="27" spans="1:19" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>1</v>
       </c>
@@ -1408,12 +1877,14 @@
       <c r="G27" s="7">
         <v>6024</v>
       </c>
-      <c r="H27" s="5"/>
+      <c r="H27" s="13">
+        <v>7.6810282173231155</v>
+      </c>
       <c r="I27" s="5">
         <v>202501</v>
       </c>
     </row>
-    <row r="28" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="28" spans="1:19" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>1</v>
       </c>
@@ -1435,12 +1906,14 @@
       <c r="G28" s="7">
         <v>4859</v>
       </c>
-      <c r="H28" s="5"/>
+      <c r="H28" s="13">
+        <v>6.0417288371630358</v>
+      </c>
       <c r="I28" s="5">
         <v>202501</v>
       </c>
     </row>
-    <row r="29" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="29" spans="1:19" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>1</v>
       </c>
@@ -1462,12 +1935,14 @@
       <c r="G29" s="7">
         <v>13751</v>
       </c>
-      <c r="H29" s="5"/>
+      <c r="H29" s="13">
+        <v>6.8473573612452823</v>
+      </c>
       <c r="I29" s="5">
         <v>202501</v>
       </c>
     </row>
-    <row r="30" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="30" spans="1:19" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>1</v>
       </c>
@@ -1489,12 +1964,14 @@
       <c r="G30" s="7">
         <v>10716</v>
       </c>
-      <c r="H30" s="5"/>
+      <c r="H30" s="13">
+        <v>5.0669301949510377</v>
+      </c>
       <c r="I30" s="5">
         <v>202501</v>
       </c>
     </row>
-    <row r="31" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="31" spans="1:19" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>1</v>
       </c>
@@ -1516,12 +1993,14 @@
       <c r="G31" s="7">
         <v>9861</v>
       </c>
-      <c r="H31" s="5"/>
+      <c r="H31" s="13">
+        <v>10.307198628633547</v>
+      </c>
       <c r="I31" s="5">
         <v>202501</v>
       </c>
     </row>
-    <row r="32" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="32" spans="1:19" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>1</v>
       </c>
@@ -1543,44 +2022,50 @@
       <c r="G32" s="7">
         <v>7960</v>
       </c>
-      <c r="H32" s="5"/>
+      <c r="H32" s="13">
+        <v>7.9837116235218595</v>
+      </c>
       <c r="I32" s="5">
         <v>202501</v>
       </c>
     </row>
-    <row r="33" s="1" customFormat="1" ht="28.7982" customHeight="1"/>
+    <row r="33" s="1" customFormat="1" ht="28.7" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <pageSetup paperSize="9" scale="100" orientation="portrait"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:S5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L27" sqref="L27"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.4999666666667" customWidth="1"/>
-    <col min="2" max="5" width="10.7163133333333" customWidth="1"/>
-    <col min="6" max="6" width="13.8345" customWidth="1"/>
-    <col min="7" max="7" width="18.1125" customWidth="1"/>
-    <col min="8" max="8" width="28.3797" customWidth="1"/>
-    <col min="9" max="9" width="12.5986333333333" customWidth="1"/>
-    <col min="10" max="10" width="21.4588466666667" customWidth="1"/>
-    <col min="11" max="11" width="14.4999666666667" customWidth="1"/>
-    <col min="12" max="14" width="10.7163133333333" customWidth="1"/>
-    <col min="15" max="15" width="12.5986333333333" customWidth="1"/>
-    <col min="16" max="16" width="13.8345" customWidth="1"/>
-    <col min="17" max="17" width="18.1125" customWidth="1"/>
-    <col min="18" max="18" width="28.3797" customWidth="1"/>
-    <col min="19" max="19" width="12.5986333333333" customWidth="1"/>
-    <col min="20" max="20" width="4.67767866666667" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" customWidth="1"/>
+    <col min="2" max="5" width="10.7109375" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" customWidth="1"/>
+    <col min="7" max="7" width="18.140625" customWidth="1"/>
+    <col min="8" max="8" width="28.42578125" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" customWidth="1"/>
+    <col min="10" max="10" width="21.42578125" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" customWidth="1"/>
+    <col min="12" max="14" width="10.7109375" customWidth="1"/>
+    <col min="15" max="15" width="12.5703125" customWidth="1"/>
+    <col min="16" max="16" width="13.85546875" customWidth="1"/>
+    <col min="17" max="17" width="18.140625" customWidth="1"/>
+    <col min="18" max="18" width="28.42578125" customWidth="1"/>
+    <col min="19" max="19" width="12.5703125" customWidth="1"/>
+    <col min="20" max="20" width="4.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="6.3996" customHeight="1"/>
-    <row r="2" s="1" customFormat="1" ht="23.9985" customHeight="1">
+    <row r="1" spans="1:19" s="1" customFormat="1" ht="6.4" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="1:19" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1632,7 +2117,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="3" spans="1:19" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -1654,7 +2139,9 @@
       <c r="G3" s="7">
         <v>131480</v>
       </c>
-      <c r="H3" s="5"/>
+      <c r="H3" s="14">
+        <v>7.5644514506970131</v>
+      </c>
       <c r="I3" s="5">
         <v>202501</v>
       </c>
@@ -1679,12 +2166,14 @@
       <c r="Q3" s="7">
         <v>236229</v>
       </c>
-      <c r="R3" s="5"/>
+      <c r="R3" s="12">
+        <v>6.6571790496507663</v>
+      </c>
       <c r="S3" s="5">
         <v>202501</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="4" spans="1:19" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>1</v>
       </c>
@@ -1706,49 +2195,55 @@
       <c r="G4" s="7">
         <v>104749</v>
       </c>
-      <c r="H4" s="5"/>
+      <c r="H4" s="14">
+        <v>5.7861027257084938</v>
+      </c>
       <c r="I4" s="5">
         <v>202501</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" ht="28.7982" customHeight="1"/>
+    <row r="5" spans="1:19" s="1" customFormat="1" ht="28.7" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <pageSetup paperSize="9" scale="100" orientation="portrait"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:S37"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="U30" sqref="U30"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.4999666666667" customWidth="1"/>
-    <col min="2" max="2" width="10.7163133333333" customWidth="1"/>
-    <col min="3" max="3" width="18.8730333333333" customWidth="1"/>
-    <col min="4" max="4" width="13.9295666666667" customWidth="1"/>
-    <col min="5" max="5" width="10.7163133333333" customWidth="1"/>
-    <col min="6" max="6" width="13.8345" customWidth="1"/>
-    <col min="7" max="7" width="18.1125" customWidth="1"/>
-    <col min="8" max="8" width="24.9573" customWidth="1"/>
-    <col min="9" max="9" width="12.5986333333333" customWidth="1"/>
-    <col min="10" max="10" width="13.5112733333333" customWidth="1"/>
-    <col min="11" max="11" width="14.4999666666667" customWidth="1"/>
-    <col min="12" max="12" width="10.7163133333333" customWidth="1"/>
-    <col min="13" max="13" width="18.8730333333333" customWidth="1"/>
-    <col min="14" max="14" width="13.9295666666667" customWidth="1"/>
-    <col min="15" max="15" width="12.5986333333333" customWidth="1"/>
-    <col min="16" max="16" width="13.8345" customWidth="1"/>
-    <col min="17" max="17" width="18.1125" customWidth="1"/>
-    <col min="18" max="18" width="24.9573" customWidth="1"/>
-    <col min="19" max="19" width="12.5986333333333" customWidth="1"/>
-    <col min="20" max="20" width="4.67767866666667" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" customWidth="1"/>
+    <col min="7" max="7" width="18.140625" customWidth="1"/>
+    <col min="8" max="8" width="25" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" customWidth="1"/>
+    <col min="10" max="10" width="13.5703125" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" customWidth="1"/>
+    <col min="12" max="12" width="10.7109375" customWidth="1"/>
+    <col min="13" max="13" width="18.85546875" customWidth="1"/>
+    <col min="14" max="14" width="13.85546875" customWidth="1"/>
+    <col min="15" max="15" width="12.5703125" customWidth="1"/>
+    <col min="16" max="16" width="13.85546875" customWidth="1"/>
+    <col min="17" max="17" width="18.140625" customWidth="1"/>
+    <col min="18" max="18" width="25" customWidth="1"/>
+    <col min="19" max="19" width="12.5703125" customWidth="1"/>
+    <col min="20" max="20" width="4.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="6.3996" customHeight="1"/>
-    <row r="2" s="1" customFormat="1" ht="23.9985" customHeight="1">
+    <row r="1" spans="1:19" s="1" customFormat="1" ht="6.4" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="1:19" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1800,7 +2295,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="3" spans="1:19" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -1822,7 +2317,9 @@
       <c r="G3" s="7">
         <v>372</v>
       </c>
-      <c r="H3" s="5"/>
+      <c r="H3" s="11">
+        <v>8.8026502602934222</v>
+      </c>
       <c r="I3" s="5">
         <v>202501</v>
       </c>
@@ -1847,12 +2344,14 @@
       <c r="Q3" s="7">
         <v>637</v>
       </c>
-      <c r="R3" s="5"/>
+      <c r="R3" s="11">
+        <v>7.4259734203777104</v>
+      </c>
       <c r="S3" s="5">
         <v>202501</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="4" spans="1:19" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>1</v>
       </c>
@@ -1874,7 +2373,9 @@
       <c r="G4" s="7">
         <v>265</v>
       </c>
-      <c r="H4" s="5"/>
+      <c r="H4" s="11">
+        <v>6.0891544117647056</v>
+      </c>
       <c r="I4" s="5">
         <v>202501</v>
       </c>
@@ -1899,12 +2400,14 @@
       <c r="Q4" s="7">
         <v>199</v>
       </c>
-      <c r="R4" s="5"/>
+      <c r="R4" s="11">
+        <v>8.1224489795918373</v>
+      </c>
       <c r="S4" s="5">
         <v>202501</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="5" spans="1:19" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>1</v>
       </c>
@@ -1926,7 +2429,9 @@
       <c r="G5" s="7">
         <v>100</v>
       </c>
-      <c r="H5" s="5"/>
+      <c r="H5" s="11">
+        <v>8.3542188805346704</v>
+      </c>
       <c r="I5" s="5">
         <v>202501</v>
       </c>
@@ -1951,12 +2456,14 @@
       <c r="Q5" s="7">
         <v>37</v>
       </c>
-      <c r="R5" s="5"/>
+      <c r="R5" s="11">
+        <v>4.9399198931909218</v>
+      </c>
       <c r="S5" s="5">
         <v>202501</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="6" spans="1:19" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>1</v>
       </c>
@@ -1978,7 +2485,9 @@
       <c r="G6" s="7">
         <v>99</v>
       </c>
-      <c r="H6" s="5"/>
+      <c r="H6" s="11">
+        <v>7.9010375099760566</v>
+      </c>
       <c r="I6" s="5">
         <v>202501</v>
       </c>
@@ -2003,12 +2512,14 @@
       <c r="Q6" s="7">
         <v>44</v>
       </c>
-      <c r="R6" s="5"/>
+      <c r="R6" s="11">
+        <v>4.6659597030752922</v>
+      </c>
       <c r="S6" s="5">
         <v>202501</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="7" spans="1:19" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>1</v>
       </c>
@@ -2030,7 +2541,9 @@
       <c r="G7" s="7">
         <v>21</v>
       </c>
-      <c r="H7" s="5"/>
+      <c r="H7" s="11">
+        <v>5.8659217877094969</v>
+      </c>
       <c r="I7" s="5">
         <v>202501</v>
       </c>
@@ -2055,12 +2568,14 @@
       <c r="Q7" s="7">
         <v>473</v>
       </c>
-      <c r="R7" s="5"/>
+      <c r="R7" s="11">
+        <v>7.7237099934683213</v>
+      </c>
       <c r="S7" s="5">
         <v>202501</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="8" spans="1:19" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>1</v>
       </c>
@@ -2082,7 +2597,9 @@
       <c r="G8" s="7">
         <v>16</v>
       </c>
-      <c r="H8" s="5"/>
+      <c r="H8" s="11">
+        <v>4.0920716112531972</v>
+      </c>
       <c r="I8" s="5">
         <v>202501</v>
       </c>
@@ -2107,12 +2624,14 @@
       <c r="Q8" s="7">
         <v>90</v>
       </c>
-      <c r="R8" s="5"/>
+      <c r="R8" s="11">
+        <v>6.0120240480961922</v>
+      </c>
       <c r="S8" s="5">
         <v>202501</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="9" spans="1:19" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>1</v>
       </c>
@@ -2134,7 +2653,9 @@
       <c r="G9" s="7">
         <v>16</v>
       </c>
-      <c r="H9" s="5"/>
+      <c r="H9" s="11">
+        <v>3.3755274261603372</v>
+      </c>
       <c r="I9" s="5">
         <v>202501</v>
       </c>
@@ -2159,12 +2680,14 @@
       <c r="Q9" s="7">
         <v>411</v>
       </c>
-      <c r="R9" s="5"/>
+      <c r="R9" s="11">
+        <v>5.9401647636941748</v>
+      </c>
       <c r="S9" s="5">
         <v>202501</v>
       </c>
     </row>
-    <row r="10" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="10" spans="1:19" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>1</v>
       </c>
@@ -2186,7 +2709,9 @@
       <c r="G10" s="7">
         <v>28</v>
       </c>
-      <c r="H10" s="5"/>
+      <c r="H10" s="11">
+        <v>5.9701492537313428</v>
+      </c>
       <c r="I10" s="5">
         <v>202501</v>
       </c>
@@ -2211,12 +2736,14 @@
       <c r="Q10" s="7">
         <v>43</v>
       </c>
-      <c r="R10" s="5"/>
+      <c r="R10" s="11">
+        <v>5.143540669856459</v>
+      </c>
       <c r="S10" s="5">
         <v>202501</v>
       </c>
     </row>
-    <row r="11" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="11" spans="1:19" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>1</v>
       </c>
@@ -2238,7 +2765,9 @@
       <c r="G11" s="7">
         <v>236</v>
       </c>
-      <c r="H11" s="5"/>
+      <c r="H11" s="11">
+        <v>7.8301260783012614</v>
+      </c>
       <c r="I11" s="5">
         <v>202501</v>
       </c>
@@ -2263,12 +2792,14 @@
       <c r="Q11" s="7">
         <v>262</v>
       </c>
-      <c r="R11" s="5"/>
+      <c r="R11" s="11">
+        <v>6.6061522945032776</v>
+      </c>
       <c r="S11" s="5">
         <v>202501</v>
       </c>
     </row>
-    <row r="12" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="12" spans="1:19" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>1</v>
       </c>
@@ -2290,7 +2821,9 @@
       <c r="G12" s="7">
         <v>237</v>
       </c>
-      <c r="H12" s="5"/>
+      <c r="H12" s="11">
+        <v>7.620578778135048</v>
+      </c>
       <c r="I12" s="5">
         <v>202501</v>
       </c>
@@ -2315,12 +2848,14 @@
       <c r="Q12" s="7">
         <v>560</v>
       </c>
-      <c r="R12" s="5"/>
+      <c r="R12" s="11">
+        <v>6.9410014873574619</v>
+      </c>
       <c r="S12" s="5">
         <v>202501</v>
       </c>
     </row>
-    <row r="13" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="13" spans="1:19" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>1</v>
       </c>
@@ -2342,7 +2877,9 @@
       <c r="G13" s="7">
         <v>54</v>
       </c>
-      <c r="H13" s="5"/>
+      <c r="H13" s="11">
+        <v>7.3569482288828345</v>
+      </c>
       <c r="I13" s="5">
         <v>202501</v>
       </c>
@@ -2367,12 +2904,14 @@
       <c r="Q13" s="7">
         <v>1471</v>
       </c>
-      <c r="R13" s="5"/>
+      <c r="R13" s="11">
+        <v>6.3410638848176566</v>
+      </c>
       <c r="S13" s="5">
         <v>202501</v>
       </c>
     </row>
-    <row r="14" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="14" spans="1:19" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>1</v>
       </c>
@@ -2394,7 +2933,9 @@
       <c r="G14" s="7">
         <v>36</v>
       </c>
-      <c r="H14" s="5"/>
+      <c r="H14" s="11">
+        <v>4.7182175622542593</v>
+      </c>
       <c r="I14" s="5">
         <v>202501</v>
       </c>
@@ -2419,12 +2960,14 @@
       <c r="Q14" s="7">
         <v>98</v>
       </c>
-      <c r="R14" s="5"/>
+      <c r="R14" s="11">
+        <v>5.6192660550458715</v>
+      </c>
       <c r="S14" s="5">
         <v>202501</v>
       </c>
     </row>
-    <row r="15" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="15" spans="1:19" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>1</v>
       </c>
@@ -2446,7 +2989,9 @@
       <c r="G15" s="7">
         <v>227</v>
       </c>
-      <c r="H15" s="5"/>
+      <c r="H15" s="11">
+        <v>6.6103669190448455</v>
+      </c>
       <c r="I15" s="5">
         <v>202501</v>
       </c>
@@ -2471,12 +3016,14 @@
       <c r="Q15" s="7">
         <v>67</v>
       </c>
-      <c r="R15" s="5"/>
+      <c r="R15" s="11">
+        <v>4.8063127690100433</v>
+      </c>
       <c r="S15" s="5">
         <v>202501</v>
       </c>
     </row>
-    <row r="16" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="16" spans="1:19" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>1</v>
       </c>
@@ -2498,7 +3045,9 @@
       <c r="G16" s="7">
         <v>184</v>
       </c>
-      <c r="H16" s="5"/>
+      <c r="H16" s="11">
+        <v>5.2797704447632707</v>
+      </c>
       <c r="I16" s="5">
         <v>202501</v>
       </c>
@@ -2523,12 +3072,14 @@
       <c r="Q16" s="7">
         <v>2613</v>
       </c>
-      <c r="R16" s="5"/>
+      <c r="R16" s="11">
+        <v>7.4608114667504211</v>
+      </c>
       <c r="S16" s="5">
         <v>202501</v>
       </c>
     </row>
-    <row r="17" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="17" spans="1:19" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>1</v>
       </c>
@@ -2550,7 +3101,9 @@
       <c r="G17" s="7">
         <v>22</v>
       </c>
-      <c r="H17" s="5"/>
+      <c r="H17" s="11">
+        <v>5.4455445544554459</v>
+      </c>
       <c r="I17" s="5">
         <v>202501</v>
       </c>
@@ -2575,12 +3128,14 @@
       <c r="Q17" s="7">
         <v>174</v>
       </c>
-      <c r="R17" s="5"/>
+      <c r="R17" s="11">
+        <v>5.2472858866103742</v>
+      </c>
       <c r="S17" s="5">
         <v>202501</v>
       </c>
     </row>
-    <row r="18" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="18" spans="1:19" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>1</v>
       </c>
@@ -2602,7 +3157,9 @@
       <c r="G18" s="7">
         <v>21</v>
       </c>
-      <c r="H18" s="5"/>
+      <c r="H18" s="11">
+        <v>4.8611111111111116</v>
+      </c>
       <c r="I18" s="5">
         <v>202501</v>
       </c>
@@ -2627,12 +3184,14 @@
       <c r="Q18" s="7">
         <v>76</v>
       </c>
-      <c r="R18" s="5"/>
+      <c r="R18" s="11">
+        <v>5.6547619047619051</v>
+      </c>
       <c r="S18" s="5">
         <v>202501</v>
       </c>
     </row>
-    <row r="19" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="19" spans="1:19" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>1</v>
       </c>
@@ -2654,7 +3213,9 @@
       <c r="G19" s="7">
         <v>149</v>
       </c>
-      <c r="H19" s="5"/>
+      <c r="H19" s="11">
+        <v>7.5252525252525251</v>
+      </c>
       <c r="I19" s="5">
         <v>202501</v>
       </c>
@@ -2679,12 +3240,14 @@
       <c r="Q19" s="7">
         <v>127</v>
       </c>
-      <c r="R19" s="5"/>
+      <c r="R19" s="11">
+        <v>5.5217391304347831</v>
+      </c>
       <c r="S19" s="5">
         <v>202501</v>
       </c>
     </row>
-    <row r="20" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="20" spans="1:19" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>1</v>
       </c>
@@ -2706,12 +3269,14 @@
       <c r="G20" s="7">
         <v>113</v>
       </c>
-      <c r="H20" s="5"/>
+      <c r="H20" s="11">
+        <v>5.689828801611279</v>
+      </c>
       <c r="I20" s="5">
         <v>202501</v>
       </c>
     </row>
-    <row r="21" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="21" spans="1:19" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>1</v>
       </c>
@@ -2733,12 +3298,14 @@
       <c r="G21" s="7">
         <v>288</v>
       </c>
-      <c r="H21" s="5"/>
+      <c r="H21" s="11">
+        <v>7.2562358276643995</v>
+      </c>
       <c r="I21" s="5">
         <v>202501</v>
       </c>
     </row>
-    <row r="22" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="22" spans="1:19" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>1</v>
       </c>
@@ -2760,12 +3327,14 @@
       <c r="G22" s="7">
         <v>272</v>
       </c>
-      <c r="H22" s="5"/>
+      <c r="H22" s="11">
+        <v>6.6357648206879727</v>
+      </c>
       <c r="I22" s="5">
         <v>202501</v>
       </c>
     </row>
-    <row r="23" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="23" spans="1:19" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>1</v>
       </c>
@@ -2787,12 +3356,14 @@
       <c r="G23" s="7">
         <v>797</v>
       </c>
-      <c r="H23" s="5"/>
+      <c r="H23" s="11">
+        <v>6.9431135116299325</v>
+      </c>
       <c r="I23" s="5">
         <v>202501</v>
       </c>
     </row>
-    <row r="24" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="24" spans="1:19" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>1</v>
       </c>
@@ -2814,12 +3385,14 @@
       <c r="G24" s="7">
         <v>674</v>
       </c>
-      <c r="H24" s="5"/>
+      <c r="H24" s="11">
+        <v>5.7513439713286116</v>
+      </c>
       <c r="I24" s="5">
         <v>202501</v>
       </c>
     </row>
-    <row r="25" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="25" spans="1:19" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>1</v>
       </c>
@@ -2841,12 +3414,14 @@
       <c r="G25" s="7">
         <v>53</v>
       </c>
-      <c r="H25" s="5"/>
+      <c r="H25" s="11">
+        <v>6.1342592592592595</v>
+      </c>
       <c r="I25" s="5">
         <v>202501</v>
       </c>
     </row>
-    <row r="26" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="26" spans="1:19" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>1</v>
       </c>
@@ -2868,12 +3443,14 @@
       <c r="G26" s="7">
         <v>45</v>
       </c>
-      <c r="H26" s="5"/>
+      <c r="H26" s="11">
+        <v>5.1136363636363642</v>
+      </c>
       <c r="I26" s="5">
         <v>202501</v>
       </c>
     </row>
-    <row r="27" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="27" spans="1:19" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>1</v>
       </c>
@@ -2895,12 +3472,14 @@
       <c r="G27" s="7">
         <v>42</v>
       </c>
-      <c r="H27" s="5"/>
+      <c r="H27" s="11">
+        <v>6.2314540059347179</v>
+      </c>
       <c r="I27" s="5">
         <v>202501</v>
       </c>
     </row>
-    <row r="28" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="28" spans="1:19" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>1</v>
       </c>
@@ -2922,12 +3501,14 @@
       <c r="G28" s="7">
         <v>25</v>
       </c>
-      <c r="H28" s="5"/>
+      <c r="H28" s="11">
+        <v>3.4722222222222223</v>
+      </c>
       <c r="I28" s="5">
         <v>202501</v>
       </c>
     </row>
-    <row r="29" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="29" spans="1:19" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>1</v>
       </c>
@@ -2949,12 +3530,14 @@
       <c r="G29" s="7">
         <v>1445</v>
       </c>
-      <c r="H29" s="5"/>
+      <c r="H29" s="11">
+        <v>8.3266105796934422</v>
+      </c>
       <c r="I29" s="5">
         <v>202501</v>
       </c>
     </row>
-    <row r="30" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="30" spans="1:19" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>1</v>
       </c>
@@ -2976,12 +3559,14 @@
       <c r="G30" s="7">
         <v>1168</v>
       </c>
-      <c r="H30" s="5"/>
+      <c r="H30" s="11">
+        <v>6.6104476767219422</v>
+      </c>
       <c r="I30" s="5">
         <v>202501</v>
       </c>
     </row>
-    <row r="31" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="31" spans="1:19" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>1</v>
       </c>
@@ -3003,12 +3588,14 @@
       <c r="G31" s="7">
         <v>92</v>
       </c>
-      <c r="H31" s="5"/>
+      <c r="H31" s="11">
+        <v>5.6338028169014089</v>
+      </c>
       <c r="I31" s="5">
         <v>202501</v>
       </c>
     </row>
-    <row r="32" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="32" spans="1:19" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>1</v>
       </c>
@@ -3030,12 +3617,14 @@
       <c r="G32" s="7">
         <v>82</v>
       </c>
-      <c r="H32" s="5"/>
+      <c r="H32" s="11">
+        <v>4.8722519310754597</v>
+      </c>
       <c r="I32" s="5">
         <v>202501</v>
       </c>
     </row>
-    <row r="33" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="33" spans="1:9" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <v>1</v>
       </c>
@@ -3057,12 +3646,14 @@
       <c r="G33" s="7">
         <v>41</v>
       </c>
-      <c r="H33" s="5"/>
+      <c r="H33" s="11">
+        <v>6.3076923076923075</v>
+      </c>
       <c r="I33" s="5">
         <v>202501</v>
       </c>
     </row>
-    <row r="34" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="34" spans="1:9" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
         <v>1</v>
       </c>
@@ -3084,12 +3675,14 @@
       <c r="G34" s="7">
         <v>35</v>
       </c>
-      <c r="H34" s="5"/>
+      <c r="H34" s="11">
+        <v>5.043227665706052</v>
+      </c>
       <c r="I34" s="5">
         <v>202501</v>
       </c>
     </row>
-    <row r="35" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="35" spans="1:9" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
         <v>1</v>
       </c>
@@ -3111,12 +3704,14 @@
       <c r="G35" s="7">
         <v>71</v>
       </c>
-      <c r="H35" s="5"/>
+      <c r="H35" s="11">
+        <v>6.3734290843806107</v>
+      </c>
       <c r="I35" s="5">
         <v>202501</v>
       </c>
     </row>
-    <row r="36" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="36" spans="1:9" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
         <v>1</v>
       </c>
@@ -3138,47 +3733,53 @@
       <c r="G36" s="7">
         <v>56</v>
       </c>
-      <c r="H36" s="5"/>
+      <c r="H36" s="11">
+        <v>4.7217537942664416</v>
+      </c>
       <c r="I36" s="5">
         <v>202501</v>
       </c>
     </row>
-    <row r="37" s="1" customFormat="1" ht="28.7982" customHeight="1"/>
+    <row r="37" spans="1:9" s="1" customFormat="1" ht="28.7" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <pageSetup paperSize="9" scale="100" orientation="portrait"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:S33"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O27" sqref="O27"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.4999666666667" customWidth="1"/>
-    <col min="2" max="3" width="10.7163133333333" customWidth="1"/>
-    <col min="4" max="4" width="29.9007666666667" customWidth="1"/>
-    <col min="5" max="5" width="10.7163133333333" customWidth="1"/>
-    <col min="6" max="6" width="13.8345" customWidth="1"/>
-    <col min="7" max="7" width="18.1125" customWidth="1"/>
-    <col min="8" max="8" width="24.9573" customWidth="1"/>
-    <col min="9" max="9" width="12.5986333333333" customWidth="1"/>
-    <col min="10" max="10" width="5.69679333333333" customWidth="1"/>
-    <col min="11" max="11" width="14.4999666666667" customWidth="1"/>
-    <col min="12" max="13" width="10.7163133333333" customWidth="1"/>
-    <col min="14" max="14" width="29.9007666666667" customWidth="1"/>
-    <col min="15" max="15" width="12.5986333333333" customWidth="1"/>
-    <col min="16" max="16" width="13.8345" customWidth="1"/>
-    <col min="17" max="17" width="18.1125" customWidth="1"/>
-    <col min="18" max="18" width="24.9573" customWidth="1"/>
-    <col min="19" max="19" width="12.5986333333333" customWidth="1"/>
-    <col min="20" max="20" width="4.67767866666667" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" customWidth="1"/>
+    <col min="2" max="3" width="10.7109375" customWidth="1"/>
+    <col min="4" max="4" width="29.85546875" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" customWidth="1"/>
+    <col min="7" max="7" width="18.140625" customWidth="1"/>
+    <col min="8" max="8" width="25" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" customWidth="1"/>
+    <col min="10" max="10" width="5.7109375" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" customWidth="1"/>
+    <col min="12" max="13" width="10.7109375" customWidth="1"/>
+    <col min="14" max="14" width="29.85546875" customWidth="1"/>
+    <col min="15" max="15" width="12.5703125" customWidth="1"/>
+    <col min="16" max="16" width="13.85546875" customWidth="1"/>
+    <col min="17" max="17" width="18.140625" customWidth="1"/>
+    <col min="18" max="18" width="25" customWidth="1"/>
+    <col min="19" max="19" width="12.5703125" customWidth="1"/>
+    <col min="20" max="20" width="4.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="6.3996" customHeight="1"/>
-    <row r="2" s="1" customFormat="1" ht="23.9985" customHeight="1">
+    <row r="1" spans="1:19" s="1" customFormat="1" ht="6.4" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="1:19" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -3230,7 +3831,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="3" spans="1:19" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -3252,7 +3853,9 @@
       <c r="G3" s="7">
         <v>1972</v>
       </c>
-      <c r="H3" s="5"/>
+      <c r="H3" s="11">
+        <v>8.3485034503196296</v>
+      </c>
       <c r="I3" s="5">
         <v>202501</v>
       </c>
@@ -3277,12 +3880,14 @@
       <c r="Q3" s="7">
         <v>3780</v>
       </c>
-      <c r="R3" s="5"/>
+      <c r="R3" s="11">
+        <v>7.7718609289224254</v>
+      </c>
       <c r="S3" s="5">
         <v>202501</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="4" spans="1:19" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>1</v>
       </c>
@@ -3304,7 +3909,9 @@
       <c r="G4" s="7">
         <v>1808</v>
       </c>
-      <c r="H4" s="5"/>
+      <c r="H4" s="11">
+        <v>7.2273744803325863</v>
+      </c>
       <c r="I4" s="5">
         <v>202501</v>
       </c>
@@ -3329,12 +3936,14 @@
       <c r="Q4" s="7">
         <v>5315</v>
       </c>
-      <c r="R4" s="5"/>
+      <c r="R4" s="11">
+        <v>5.3938034686773761</v>
+      </c>
       <c r="S4" s="5">
         <v>202501</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="5" spans="1:19" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>1</v>
       </c>
@@ -3356,7 +3965,9 @@
       <c r="G5" s="7">
         <v>2743</v>
       </c>
-      <c r="H5" s="5"/>
+      <c r="H5" s="11">
+        <v>5.7598219347794135</v>
+      </c>
       <c r="I5" s="5">
         <v>202501</v>
       </c>
@@ -3381,12 +3992,14 @@
       <c r="Q5" s="7">
         <v>2404</v>
       </c>
-      <c r="R5" s="5"/>
+      <c r="R5" s="11">
+        <v>6.5783712784588442</v>
+      </c>
       <c r="S5" s="5">
         <v>202501</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="6" spans="1:19" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>1</v>
       </c>
@@ -3408,7 +4021,9 @@
       <c r="G6" s="7">
         <v>2572</v>
       </c>
-      <c r="H6" s="5"/>
+      <c r="H6" s="11">
+        <v>5.0514573022232696</v>
+      </c>
       <c r="I6" s="5">
         <v>202501</v>
       </c>
@@ -3433,12 +4048,14 @@
       <c r="Q6" s="7">
         <v>611</v>
       </c>
-      <c r="R6" s="5"/>
+      <c r="R6" s="11">
+        <v>5.2964632454923715</v>
+      </c>
       <c r="S6" s="5">
         <v>202501</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="7" spans="1:19" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>1</v>
       </c>
@@ -3460,7 +4077,9 @@
       <c r="G7" s="7">
         <v>1241</v>
       </c>
-      <c r="H7" s="5"/>
+      <c r="H7" s="11">
+        <v>7.1622323541293929</v>
+      </c>
       <c r="I7" s="5">
         <v>202501</v>
       </c>
@@ -3485,12 +4104,14 @@
       <c r="Q7" s="7">
         <v>3332</v>
       </c>
-      <c r="R7" s="5"/>
+      <c r="R7" s="11">
+        <v>6.6354674897938866</v>
+      </c>
       <c r="S7" s="5">
         <v>202501</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="8" spans="1:19" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>1</v>
       </c>
@@ -3512,7 +4133,9 @@
       <c r="G8" s="7">
         <v>1163</v>
       </c>
-      <c r="H8" s="5"/>
+      <c r="H8" s="11">
+        <v>6.0519331841598589</v>
+      </c>
       <c r="I8" s="5">
         <v>202501</v>
       </c>
@@ -3537,12 +4160,14 @@
       <c r="Q8" s="7">
         <v>2462</v>
       </c>
-      <c r="R8" s="5"/>
+      <c r="R8" s="11">
+        <v>6.4009567636429816</v>
+      </c>
       <c r="S8" s="5">
         <v>202501</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="9" spans="1:19" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>1</v>
       </c>
@@ -3564,7 +4189,9 @@
       <c r="G9" s="7">
         <v>284</v>
       </c>
-      <c r="H9" s="5"/>
+      <c r="H9" s="11">
+        <v>5.2573121066271753</v>
+      </c>
       <c r="I9" s="5">
         <v>202501</v>
       </c>
@@ -3589,12 +4216,14 @@
       <c r="Q9" s="7">
         <v>2423</v>
       </c>
-      <c r="R9" s="5"/>
+      <c r="R9" s="11">
+        <v>7.1905510876339145</v>
+      </c>
       <c r="S9" s="5">
         <v>202501</v>
       </c>
     </row>
-    <row r="10" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="10" spans="1:19" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>1</v>
       </c>
@@ -3616,7 +4245,9 @@
       <c r="G10" s="7">
         <v>327</v>
       </c>
-      <c r="H10" s="5"/>
+      <c r="H10" s="11">
+        <v>5.3309422888816433</v>
+      </c>
       <c r="I10" s="5">
         <v>202501</v>
       </c>
@@ -3641,12 +4272,14 @@
       <c r="Q10" s="7">
         <v>6282</v>
       </c>
-      <c r="R10" s="5"/>
+      <c r="R10" s="11">
+        <v>4.6058082159641627</v>
+      </c>
       <c r="S10" s="5">
         <v>202501</v>
       </c>
     </row>
-    <row r="11" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="11" spans="1:19" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>1</v>
       </c>
@@ -3668,7 +4301,9 @@
       <c r="G11" s="7">
         <v>1758</v>
       </c>
-      <c r="H11" s="5"/>
+      <c r="H11" s="11">
+        <v>7.3455062048217945</v>
+      </c>
       <c r="I11" s="5">
         <v>202501</v>
       </c>
@@ -3693,12 +4328,14 @@
       <c r="Q11" s="7">
         <v>4648</v>
       </c>
-      <c r="R11" s="5"/>
+      <c r="R11" s="11">
+        <v>6.2095039610970835</v>
+      </c>
       <c r="S11" s="5">
         <v>202501</v>
       </c>
     </row>
-    <row r="12" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="12" spans="1:19" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>1</v>
       </c>
@@ -3720,7 +4357,9 @@
       <c r="G12" s="7">
         <v>1574</v>
       </c>
-      <c r="H12" s="5"/>
+      <c r="H12" s="11">
+        <v>5.9888897344189935</v>
+      </c>
       <c r="I12" s="5">
         <v>202501</v>
       </c>
@@ -3745,12 +4384,14 @@
       <c r="Q12" s="7">
         <v>1526</v>
       </c>
-      <c r="R12" s="5"/>
+      <c r="R12" s="11">
+        <v>6.4650059311981023</v>
+      </c>
       <c r="S12" s="5">
         <v>202501</v>
       </c>
     </row>
-    <row r="13" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="13" spans="1:19" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>1</v>
       </c>
@@ -3772,7 +4413,9 @@
       <c r="G13" s="7">
         <v>1200</v>
       </c>
-      <c r="H13" s="5"/>
+      <c r="H13" s="11">
+        <v>6.5800296101332449</v>
+      </c>
       <c r="I13" s="5">
         <v>202501</v>
       </c>
@@ -3797,12 +4440,14 @@
       <c r="Q13" s="7">
         <v>1671</v>
       </c>
-      <c r="R13" s="5"/>
+      <c r="R13" s="11">
+        <v>6.1352621530327509</v>
+      </c>
       <c r="S13" s="5">
         <v>202501</v>
       </c>
     </row>
-    <row r="14" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="14" spans="1:19" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>1</v>
       </c>
@@ -3824,7 +4469,9 @@
       <c r="G14" s="7">
         <v>1262</v>
       </c>
-      <c r="H14" s="5"/>
+      <c r="H14" s="11">
+        <v>6.2394937209532282</v>
+      </c>
       <c r="I14" s="5">
         <v>202501</v>
       </c>
@@ -3849,12 +4496,14 @@
       <c r="Q14" s="7">
         <v>5013</v>
       </c>
-      <c r="R14" s="5"/>
+      <c r="R14" s="11">
+        <v>6.2378677019561</v>
+      </c>
       <c r="S14" s="5">
         <v>202501</v>
       </c>
     </row>
-    <row r="15" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="15" spans="1:19" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>1</v>
       </c>
@@ -3876,7 +4525,9 @@
       <c r="G15" s="7">
         <v>1252</v>
       </c>
-      <c r="H15" s="5"/>
+      <c r="H15" s="11">
+        <v>7.802081385928834</v>
+      </c>
       <c r="I15" s="5">
         <v>202501</v>
       </c>
@@ -3901,12 +4552,14 @@
       <c r="Q15" s="7">
         <v>2300</v>
       </c>
-      <c r="R15" s="5"/>
+      <c r="R15" s="11">
+        <v>6.9166691727062215</v>
+      </c>
       <c r="S15" s="5">
         <v>202501</v>
       </c>
     </row>
-    <row r="16" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="16" spans="1:19" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>1</v>
       </c>
@@ -3928,7 +4581,9 @@
       <c r="G16" s="7">
         <v>1171</v>
       </c>
-      <c r="H16" s="5"/>
+      <c r="H16" s="11">
+        <v>6.6345609065155813</v>
+      </c>
       <c r="I16" s="5">
         <v>202501</v>
       </c>
@@ -3953,12 +4608,14 @@
       <c r="Q16" s="7">
         <v>5817</v>
       </c>
-      <c r="R16" s="5"/>
+      <c r="R16" s="11">
+        <v>5.6652837024484306</v>
+      </c>
       <c r="S16" s="5">
         <v>202501</v>
       </c>
     </row>
-    <row r="17" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="17" spans="1:19" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>1</v>
       </c>
@@ -3980,7 +4637,9 @@
       <c r="G17" s="7">
         <v>3308</v>
       </c>
-      <c r="H17" s="5"/>
+      <c r="H17" s="11">
+        <v>4.6374698592497055</v>
+      </c>
       <c r="I17" s="5">
         <v>202501</v>
       </c>
@@ -4005,12 +4664,14 @@
       <c r="Q17" s="7">
         <v>3701</v>
       </c>
-      <c r="R17" s="5"/>
+      <c r="R17" s="11">
+        <v>8.7767975716182889</v>
+      </c>
       <c r="S17" s="5">
         <v>202501</v>
       </c>
     </row>
-    <row r="18" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="18" spans="1:19" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>1</v>
       </c>
@@ -4032,12 +4693,14 @@
       <c r="G18" s="7">
         <v>2974</v>
       </c>
-      <c r="H18" s="5"/>
+      <c r="H18" s="11">
+        <v>4.5710948187085965</v>
+      </c>
       <c r="I18" s="5">
         <v>202501</v>
       </c>
     </row>
-    <row r="19" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="19" spans="1:19" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>1</v>
       </c>
@@ -4059,12 +4722,14 @@
       <c r="G19" s="7">
         <v>2275</v>
       </c>
-      <c r="H19" s="5"/>
+      <c r="H19" s="11">
+        <v>6.3155849203264669</v>
+      </c>
       <c r="I19" s="5">
         <v>202501</v>
       </c>
     </row>
-    <row r="20" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="20" spans="1:19" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>1</v>
       </c>
@@ -4086,12 +4751,14 @@
       <c r="G20" s="7">
         <v>2373</v>
       </c>
-      <c r="H20" s="5"/>
+      <c r="H20" s="11">
+        <v>6.1110968040998168</v>
+      </c>
       <c r="I20" s="5">
         <v>202501</v>
       </c>
     </row>
-    <row r="21" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="21" spans="1:19" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>1</v>
       </c>
@@ -4113,12 +4780,14 @@
       <c r="G21" s="7">
         <v>732</v>
       </c>
-      <c r="H21" s="5"/>
+      <c r="H21" s="11">
+        <v>6.4893617021276588</v>
+      </c>
       <c r="I21" s="5">
         <v>202501</v>
       </c>
     </row>
-    <row r="22" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="22" spans="1:19" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>1</v>
       </c>
@@ -4140,12 +4809,14 @@
       <c r="G22" s="7">
         <v>794</v>
       </c>
-      <c r="H22" s="5"/>
+      <c r="H22" s="11">
+        <v>6.442713404738722</v>
+      </c>
       <c r="I22" s="5">
         <v>202501</v>
       </c>
     </row>
-    <row r="23" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="23" spans="1:19" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>1</v>
       </c>
@@ -4167,12 +4838,14 @@
       <c r="G23" s="7">
         <v>916</v>
       </c>
-      <c r="H23" s="5"/>
+      <c r="H23" s="11">
+        <v>7.0003821169277796</v>
+      </c>
       <c r="I23" s="5">
         <v>202501</v>
       </c>
     </row>
-    <row r="24" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="24" spans="1:19" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>1</v>
       </c>
@@ -4194,12 +4867,14 @@
       <c r="G24" s="7">
         <v>755</v>
       </c>
-      <c r="H24" s="5"/>
+      <c r="H24" s="11">
+        <v>5.3353119920853649</v>
+      </c>
       <c r="I24" s="5">
         <v>202501</v>
       </c>
     </row>
-    <row r="25" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="25" spans="1:19" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>1</v>
       </c>
@@ -4221,12 +4896,14 @@
       <c r="G25" s="7">
         <v>2615</v>
       </c>
-      <c r="H25" s="5"/>
+      <c r="H25" s="11">
+        <v>6.8342785458536959</v>
+      </c>
       <c r="I25" s="5">
         <v>202501</v>
       </c>
     </row>
-    <row r="26" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="26" spans="1:19" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>1</v>
       </c>
@@ -4248,12 +4925,14 @@
       <c r="G26" s="7">
         <v>2398</v>
       </c>
-      <c r="H26" s="5"/>
+      <c r="H26" s="11">
+        <v>5.6958267024536235</v>
+      </c>
       <c r="I26" s="5">
         <v>202501</v>
       </c>
     </row>
-    <row r="27" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="27" spans="1:19" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>1</v>
       </c>
@@ -4275,12 +4954,14 @@
       <c r="G27" s="7">
         <v>1168</v>
       </c>
-      <c r="H27" s="5"/>
+      <c r="H27" s="11">
+        <v>7.4771141412201523</v>
+      </c>
       <c r="I27" s="5">
         <v>202501</v>
       </c>
     </row>
-    <row r="28" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="28" spans="1:19" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>1</v>
       </c>
@@ -4302,12 +4983,14 @@
       <c r="G28" s="7">
         <v>1132</v>
       </c>
-      <c r="H28" s="5"/>
+      <c r="H28" s="11">
+        <v>6.4201451905626135</v>
+      </c>
       <c r="I28" s="5">
         <v>202501</v>
       </c>
     </row>
-    <row r="29" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="29" spans="1:19" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>1</v>
       </c>
@@ -4329,12 +5012,14 @@
       <c r="G29" s="7">
         <v>2930</v>
       </c>
-      <c r="H29" s="5"/>
+      <c r="H29" s="11">
+        <v>5.8541458541458544</v>
+      </c>
       <c r="I29" s="5">
         <v>202501</v>
       </c>
     </row>
-    <row r="30" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="30" spans="1:19" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>1</v>
       </c>
@@ -4356,12 +5041,14 @@
       <c r="G30" s="7">
         <v>2887</v>
       </c>
-      <c r="H30" s="5"/>
+      <c r="H30" s="11">
+        <v>5.4856730257657516</v>
+      </c>
       <c r="I30" s="5">
         <v>202501</v>
       </c>
     </row>
-    <row r="31" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="31" spans="1:19" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>1</v>
       </c>
@@ -4383,12 +5070,14 @@
       <c r="G31" s="7">
         <v>1857</v>
       </c>
-      <c r="H31" s="5"/>
+      <c r="H31" s="11">
+        <v>9.3236933273083302</v>
+      </c>
       <c r="I31" s="5">
         <v>202501</v>
       </c>
     </row>
-    <row r="32" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="32" spans="1:19" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>1</v>
       </c>
@@ -4410,44 +5099,50 @@
       <c r="G32" s="7">
         <v>1844</v>
       </c>
-      <c r="H32" s="5"/>
+      <c r="H32" s="11">
+        <v>8.2872679879555982</v>
+      </c>
       <c r="I32" s="5">
         <v>202501</v>
       </c>
     </row>
-    <row r="33" s="1" customFormat="1" ht="28.7982" customHeight="1"/>
+    <row r="33" s="1" customFormat="1" ht="28.7" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <pageSetup paperSize="9" scale="100" orientation="portrait"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:S5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="T23" sqref="T23"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.4999666666667" customWidth="1"/>
-    <col min="2" max="5" width="10.7163133333333" customWidth="1"/>
-    <col min="6" max="6" width="13.8345" customWidth="1"/>
-    <col min="7" max="7" width="18.1125" customWidth="1"/>
-    <col min="8" max="8" width="28.3797" customWidth="1"/>
-    <col min="9" max="9" width="12.5986333333333" customWidth="1"/>
-    <col min="10" max="10" width="21.4588466666667" customWidth="1"/>
-    <col min="11" max="11" width="14.4999666666667" customWidth="1"/>
-    <col min="12" max="14" width="10.7163133333333" customWidth="1"/>
-    <col min="15" max="15" width="12.5986333333333" customWidth="1"/>
-    <col min="16" max="16" width="13.8345" customWidth="1"/>
-    <col min="17" max="17" width="18.1125" customWidth="1"/>
-    <col min="18" max="18" width="28.3797" customWidth="1"/>
-    <col min="19" max="19" width="12.5986333333333" customWidth="1"/>
-    <col min="20" max="20" width="4.67767866666667" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" customWidth="1"/>
+    <col min="2" max="5" width="10.7109375" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" customWidth="1"/>
+    <col min="7" max="7" width="18.140625" customWidth="1"/>
+    <col min="8" max="8" width="28.42578125" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" customWidth="1"/>
+    <col min="10" max="10" width="21.42578125" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" customWidth="1"/>
+    <col min="12" max="14" width="10.7109375" customWidth="1"/>
+    <col min="15" max="15" width="12.5703125" customWidth="1"/>
+    <col min="16" max="16" width="13.85546875" customWidth="1"/>
+    <col min="17" max="17" width="18.140625" customWidth="1"/>
+    <col min="18" max="18" width="28.42578125" customWidth="1"/>
+    <col min="19" max="19" width="12.5703125" customWidth="1"/>
+    <col min="20" max="20" width="4.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="6.3996" customHeight="1"/>
-    <row r="2" s="1" customFormat="1" ht="23.9985" customHeight="1">
+    <row r="1" spans="1:19" s="1" customFormat="1" ht="6.4" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="1:19" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -4499,7 +5194,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="3" spans="1:19" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -4521,7 +5216,9 @@
       <c r="G3" s="7">
         <v>26283</v>
       </c>
-      <c r="H3" s="5"/>
+      <c r="H3" s="11">
+        <v>6.4457033549146558</v>
+      </c>
       <c r="I3" s="5">
         <v>202501</v>
       </c>
@@ -4546,76 +5243,84 @@
       <c r="Q3" s="7">
         <v>51348</v>
       </c>
-      <c r="R3" s="5"/>
+      <c r="R3" s="15">
+        <v>6.1261304254456084</v>
+      </c>
       <c r="S3" s="5">
         <v>202501</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="19.7321" customHeight="1">
-      <c r="A4" s="4">
-        <v>1</v>
-      </c>
-      <c r="B4" s="5">
-        <v>2025</v>
-      </c>
-      <c r="C4" s="6" t="s">
+    <row r="4" spans="1:19" s="16" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="17">
+        <v>1</v>
+      </c>
+      <c r="B4" s="18">
+        <v>2025</v>
+      </c>
+      <c r="C4" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="G4" s="7">
+      <c r="F4" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="G4" s="20">
         <v>25065</v>
       </c>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5">
-        <v>202501</v>
-      </c>
-    </row>
-    <row r="5" s="1" customFormat="1" ht="28.7982" customHeight="1"/>
+      <c r="H4" s="21">
+        <v>5.823381813112773</v>
+      </c>
+      <c r="I4" s="18">
+        <v>202501</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" s="16" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <pageSetup paperSize="9" scale="100" orientation="portrait"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:S37"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R30" sqref="R30"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.4999666666667" customWidth="1"/>
-    <col min="2" max="2" width="10.7163133333333" customWidth="1"/>
-    <col min="3" max="3" width="18.8730333333333" customWidth="1"/>
-    <col min="4" max="4" width="13.9295666666667" customWidth="1"/>
-    <col min="5" max="5" width="10.7163133333333" customWidth="1"/>
-    <col min="6" max="6" width="13.8345" customWidth="1"/>
-    <col min="7" max="7" width="18.1125" customWidth="1"/>
-    <col min="8" max="8" width="24.9573" customWidth="1"/>
-    <col min="9" max="9" width="12.5986333333333" customWidth="1"/>
-    <col min="10" max="10" width="13.5112733333333" customWidth="1"/>
-    <col min="11" max="11" width="14.4999666666667" customWidth="1"/>
-    <col min="12" max="12" width="10.7163133333333" customWidth="1"/>
-    <col min="13" max="13" width="18.8730333333333" customWidth="1"/>
-    <col min="14" max="14" width="13.9295666666667" customWidth="1"/>
-    <col min="15" max="15" width="12.5986333333333" customWidth="1"/>
-    <col min="16" max="16" width="13.8345" customWidth="1"/>
-    <col min="17" max="17" width="18.1125" customWidth="1"/>
-    <col min="18" max="18" width="24.9573" customWidth="1"/>
-    <col min="19" max="19" width="12.5986333333333" customWidth="1"/>
-    <col min="20" max="20" width="4.67767866666667" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" customWidth="1"/>
+    <col min="7" max="7" width="18.140625" customWidth="1"/>
+    <col min="8" max="8" width="25" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" customWidth="1"/>
+    <col min="10" max="10" width="13.5703125" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" customWidth="1"/>
+    <col min="12" max="12" width="10.7109375" customWidth="1"/>
+    <col min="13" max="13" width="18.85546875" customWidth="1"/>
+    <col min="14" max="14" width="13.85546875" customWidth="1"/>
+    <col min="15" max="15" width="12.5703125" customWidth="1"/>
+    <col min="16" max="16" width="13.85546875" customWidth="1"/>
+    <col min="17" max="17" width="18.140625" customWidth="1"/>
+    <col min="18" max="18" width="25" customWidth="1"/>
+    <col min="19" max="19" width="12.5703125" customWidth="1"/>
+    <col min="20" max="20" width="4.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="6.3996" customHeight="1"/>
-    <row r="2" s="1" customFormat="1" ht="23.9985" customHeight="1">
+    <row r="1" spans="1:19" s="1" customFormat="1" ht="6.4" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="1:19" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -4667,7 +5372,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="3" spans="1:19" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -4689,7 +5394,9 @@
       <c r="G3" s="7">
         <v>69</v>
       </c>
-      <c r="H3" s="5"/>
+      <c r="H3" s="11">
+        <v>8.0232558139534884</v>
+      </c>
       <c r="I3" s="5">
         <v>202501</v>
       </c>
@@ -4714,12 +5421,14 @@
       <c r="Q3" s="7">
         <v>143</v>
       </c>
-      <c r="R3" s="5"/>
+      <c r="R3" s="11">
+        <v>7.8056768558951966</v>
+      </c>
       <c r="S3" s="5">
         <v>202501</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="4" spans="1:19" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>1</v>
       </c>
@@ -4741,7 +5450,9 @@
       <c r="G4" s="7">
         <v>74</v>
       </c>
-      <c r="H4" s="5"/>
+      <c r="H4" s="11">
+        <v>7.6131687242798352</v>
+      </c>
       <c r="I4" s="5">
         <v>202501</v>
       </c>
@@ -4766,12 +5477,14 @@
       <c r="Q4" s="7">
         <v>33</v>
       </c>
-      <c r="R4" s="5"/>
+      <c r="R4" s="11">
+        <v>6.2146892655367232</v>
+      </c>
       <c r="S4" s="5">
         <v>202501</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="5" spans="1:19" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>1</v>
       </c>
@@ -4793,7 +5506,9 @@
       <c r="G5" s="7">
         <v>14</v>
       </c>
-      <c r="H5" s="5"/>
+      <c r="H5" s="11">
+        <v>5.785123966942149</v>
+      </c>
       <c r="I5" s="5">
         <v>202501</v>
       </c>
@@ -4818,12 +5533,14 @@
       <c r="Q5" s="7">
         <v>6</v>
       </c>
-      <c r="R5" s="5"/>
+      <c r="R5" s="11">
+        <v>4.0540540540540544</v>
+      </c>
       <c r="S5" s="5">
         <v>202501</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="6" spans="1:19" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>1</v>
       </c>
@@ -4845,7 +5562,9 @@
       <c r="G6" s="7">
         <v>19</v>
       </c>
-      <c r="H6" s="5"/>
+      <c r="H6" s="11">
+        <v>6.5743944636678195</v>
+      </c>
       <c r="I6" s="5">
         <v>202501</v>
       </c>
@@ -4870,12 +5589,14 @@
       <c r="Q6" s="7">
         <v>7</v>
       </c>
-      <c r="R6" s="5"/>
+      <c r="R6" s="11">
+        <v>3.1818181818181817</v>
+      </c>
       <c r="S6" s="5">
         <v>202501</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="7" spans="1:19" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>1</v>
       </c>
@@ -4897,7 +5618,7 @@
       <c r="G7" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="H7" s="5"/>
+      <c r="H7" s="11"/>
       <c r="I7" s="5">
         <v>202501</v>
       </c>
@@ -4922,12 +5643,14 @@
       <c r="Q7" s="7">
         <v>85</v>
       </c>
-      <c r="R7" s="5"/>
+      <c r="R7" s="11">
+        <v>7.1368597816960531</v>
+      </c>
       <c r="S7" s="5">
         <v>202501</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="8" spans="1:19" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>1</v>
       </c>
@@ -4949,7 +5672,9 @@
       <c r="G8" s="7">
         <v>4</v>
       </c>
-      <c r="H8" s="5"/>
+      <c r="H8" s="11">
+        <v>4.8192771084337354</v>
+      </c>
       <c r="I8" s="5">
         <v>202501</v>
       </c>
@@ -4974,12 +5699,14 @@
       <c r="Q8" s="7">
         <v>18</v>
       </c>
-      <c r="R8" s="5"/>
+      <c r="R8" s="11">
+        <v>6.3157894736842106</v>
+      </c>
       <c r="S8" s="5">
         <v>202501</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="9" spans="1:19" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>1</v>
       </c>
@@ -5001,7 +5728,7 @@
       <c r="G9" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="H9" s="5"/>
+      <c r="H9" s="11"/>
       <c r="I9" s="5">
         <v>202501</v>
       </c>
@@ -5026,12 +5753,14 @@
       <c r="Q9" s="7">
         <v>103</v>
       </c>
-      <c r="R9" s="5"/>
+      <c r="R9" s="11">
+        <v>5.4526204340921121</v>
+      </c>
       <c r="S9" s="5">
         <v>202501</v>
       </c>
     </row>
-    <row r="10" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="10" spans="1:19" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>1</v>
       </c>
@@ -5053,7 +5782,9 @@
       <c r="G10" s="7">
         <v>5</v>
       </c>
-      <c r="H10" s="5"/>
+      <c r="H10" s="11">
+        <v>4.6728971962616823</v>
+      </c>
       <c r="I10" s="5">
         <v>202501</v>
       </c>
@@ -5078,12 +5809,14 @@
       <c r="Q10" s="7">
         <v>8</v>
       </c>
-      <c r="R10" s="5"/>
+      <c r="R10" s="11">
+        <v>5.161290322580645</v>
+      </c>
       <c r="S10" s="5">
         <v>202501</v>
       </c>
     </row>
-    <row r="11" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="11" spans="1:19" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>1</v>
       </c>
@@ -5105,7 +5838,9 @@
       <c r="G11" s="7">
         <v>38</v>
       </c>
-      <c r="H11" s="5"/>
+      <c r="H11" s="11">
+        <v>6.6783831282952555</v>
+      </c>
       <c r="I11" s="5">
         <v>202501</v>
       </c>
@@ -5130,12 +5865,14 @@
       <c r="Q11" s="7">
         <v>54</v>
       </c>
-      <c r="R11" s="5"/>
+      <c r="R11" s="11">
+        <v>6.3829787234042552</v>
+      </c>
       <c r="S11" s="5">
         <v>202501</v>
       </c>
     </row>
-    <row r="12" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="12" spans="1:19" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>1</v>
       </c>
@@ -5157,7 +5894,9 @@
       <c r="G12" s="7">
         <v>47</v>
       </c>
-      <c r="H12" s="5"/>
+      <c r="H12" s="11">
+        <v>7.5562700964630221</v>
+      </c>
       <c r="I12" s="5">
         <v>202501</v>
       </c>
@@ -5182,12 +5921,14 @@
       <c r="Q12" s="7">
         <v>129</v>
       </c>
-      <c r="R12" s="5"/>
+      <c r="R12" s="11">
+        <v>7.4609600925390405</v>
+      </c>
       <c r="S12" s="5">
         <v>202501</v>
       </c>
     </row>
-    <row r="13" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="13" spans="1:19" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>1</v>
       </c>
@@ -5209,7 +5950,9 @@
       <c r="G13" s="7">
         <v>12</v>
       </c>
-      <c r="H13" s="5"/>
+      <c r="H13" s="11">
+        <v>8.2191780821917799</v>
+      </c>
       <c r="I13" s="5">
         <v>202501</v>
       </c>
@@ -5234,12 +5977,14 @@
       <c r="Q13" s="7">
         <v>319</v>
       </c>
-      <c r="R13" s="5"/>
+      <c r="R13" s="11">
+        <v>6.2512247697432883</v>
+      </c>
       <c r="S13" s="5">
         <v>202501</v>
       </c>
     </row>
-    <row r="14" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="14" spans="1:19" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>1</v>
       </c>
@@ -5261,7 +6006,9 @@
       <c r="G14" s="7">
         <v>6</v>
       </c>
-      <c r="H14" s="5"/>
+      <c r="H14" s="11">
+        <v>4.3165467625899279</v>
+      </c>
       <c r="I14" s="5">
         <v>202501</v>
       </c>
@@ -5286,12 +6033,14 @@
       <c r="Q14" s="7">
         <v>13</v>
       </c>
-      <c r="R14" s="5"/>
+      <c r="R14" s="11">
+        <v>3.4946236559139781</v>
+      </c>
       <c r="S14" s="5">
         <v>202501</v>
       </c>
     </row>
-    <row r="15" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="15" spans="1:19" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>1</v>
       </c>
@@ -5313,7 +6062,9 @@
       <c r="G15" s="7">
         <v>44</v>
       </c>
-      <c r="H15" s="5"/>
+      <c r="H15" s="11">
+        <v>5.0113895216400905</v>
+      </c>
       <c r="I15" s="5">
         <v>202501</v>
       </c>
@@ -5338,12 +6089,14 @@
       <c r="Q15" s="7">
         <v>8</v>
       </c>
-      <c r="R15" s="5"/>
+      <c r="R15" s="11">
+        <v>3.1128404669260701</v>
+      </c>
       <c r="S15" s="5">
         <v>202501</v>
       </c>
     </row>
-    <row r="16" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="16" spans="1:19" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>1</v>
       </c>
@@ -5365,7 +6118,9 @@
       <c r="G16" s="7">
         <v>59</v>
       </c>
-      <c r="H16" s="5"/>
+      <c r="H16" s="11">
+        <v>5.8358061325420376</v>
+      </c>
       <c r="I16" s="5">
         <v>202501</v>
       </c>
@@ -5390,12 +6145,14 @@
       <c r="Q16" s="7">
         <v>538</v>
       </c>
-      <c r="R16" s="5"/>
+      <c r="R16" s="11">
+        <v>7.0696452036793689</v>
+      </c>
       <c r="S16" s="5">
         <v>202501</v>
       </c>
     </row>
-    <row r="17" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="17" spans="1:19" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>1</v>
       </c>
@@ -5417,7 +6174,7 @@
       <c r="G17" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="H17" s="5"/>
+      <c r="H17" s="11"/>
       <c r="I17" s="5">
         <v>202501</v>
       </c>
@@ -5442,12 +6199,14 @@
       <c r="Q17" s="7">
         <v>43</v>
       </c>
-      <c r="R17" s="5"/>
+      <c r="R17" s="11">
+        <v>6.4179104477611935</v>
+      </c>
       <c r="S17" s="5">
         <v>202501</v>
       </c>
     </row>
-    <row r="18" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="18" spans="1:19" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>1</v>
       </c>
@@ -5469,7 +6228,9 @@
       <c r="G18" s="7">
         <v>5</v>
       </c>
-      <c r="H18" s="5"/>
+      <c r="H18" s="11">
+        <v>5.376344086021505</v>
+      </c>
       <c r="I18" s="5">
         <v>202501</v>
       </c>
@@ -5494,12 +6255,14 @@
       <c r="Q18" s="7">
         <v>5</v>
       </c>
-      <c r="R18" s="5"/>
+      <c r="R18" s="11">
+        <v>1.8587360594795539</v>
+      </c>
       <c r="S18" s="5">
         <v>202501</v>
       </c>
     </row>
-    <row r="19" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="19" spans="1:19" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>1</v>
       </c>
@@ -5521,7 +6284,9 @@
       <c r="G19" s="7">
         <v>29</v>
       </c>
-      <c r="H19" s="5"/>
+      <c r="H19" s="11">
+        <v>7.1782178217821775</v>
+      </c>
       <c r="I19" s="5">
         <v>202501</v>
       </c>
@@ -5546,12 +6311,14 @@
       <c r="Q19" s="7">
         <v>14</v>
       </c>
-      <c r="R19" s="5"/>
+      <c r="R19" s="11">
+        <v>2.8169014084507045</v>
+      </c>
       <c r="S19" s="5">
         <v>202501</v>
       </c>
     </row>
-    <row r="20" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="20" spans="1:19" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>1</v>
       </c>
@@ -5573,12 +6340,14 @@
       <c r="G20" s="7">
         <v>25</v>
       </c>
-      <c r="H20" s="5"/>
+      <c r="H20" s="11">
+        <v>5.6561085972850682</v>
+      </c>
       <c r="I20" s="5">
         <v>202501</v>
       </c>
     </row>
-    <row r="21" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="21" spans="1:19" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>1</v>
       </c>
@@ -5600,12 +6369,14 @@
       <c r="G21" s="7">
         <v>64</v>
       </c>
-      <c r="H21" s="5"/>
+      <c r="H21" s="11">
+        <v>7.6830732292917165</v>
+      </c>
       <c r="I21" s="5">
         <v>202501</v>
       </c>
     </row>
-    <row r="22" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="22" spans="1:19" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>1</v>
       </c>
@@ -5627,12 +6398,14 @@
       <c r="G22" s="7">
         <v>65</v>
       </c>
-      <c r="H22" s="5"/>
+      <c r="H22" s="11">
+        <v>7.2544642857142865</v>
+      </c>
       <c r="I22" s="5">
         <v>202501</v>
       </c>
     </row>
-    <row r="23" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="23" spans="1:19" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>1</v>
       </c>
@@ -5654,12 +6427,14 @@
       <c r="G23" s="7">
         <v>144</v>
       </c>
-      <c r="H23" s="5"/>
+      <c r="H23" s="11">
+        <v>5.8679706601466997</v>
+      </c>
       <c r="I23" s="5">
         <v>202501</v>
       </c>
     </row>
-    <row r="24" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="24" spans="1:19" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>1</v>
       </c>
@@ -5681,12 +6456,14 @@
       <c r="G24" s="7">
         <v>175</v>
       </c>
-      <c r="H24" s="5"/>
+      <c r="H24" s="11">
+        <v>6.6062665156662899</v>
+      </c>
       <c r="I24" s="5">
         <v>202501</v>
       </c>
     </row>
-    <row r="25" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="25" spans="1:19" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>1</v>
       </c>
@@ -5708,12 +6485,14 @@
       <c r="G25" s="7">
         <v>8</v>
       </c>
-      <c r="H25" s="5"/>
+      <c r="H25" s="11">
+        <v>4.395604395604396</v>
+      </c>
       <c r="I25" s="5">
         <v>202501</v>
       </c>
     </row>
-    <row r="26" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="26" spans="1:19" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>1</v>
       </c>
@@ -5735,12 +6514,14 @@
       <c r="G26" s="7">
         <v>5</v>
       </c>
-      <c r="H26" s="5"/>
+      <c r="H26" s="11">
+        <v>2.6315789473684208</v>
+      </c>
       <c r="I26" s="5">
         <v>202501</v>
       </c>
     </row>
-    <row r="27" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="27" spans="1:19" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>1</v>
       </c>
@@ -5762,12 +6543,12 @@
       <c r="G27" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="H27" s="5"/>
+      <c r="H27" s="11"/>
       <c r="I27" s="5">
         <v>202501</v>
       </c>
     </row>
-    <row r="28" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="28" spans="1:19" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>1</v>
       </c>
@@ -5789,12 +6570,14 @@
       <c r="G28" s="7">
         <v>5</v>
       </c>
-      <c r="H28" s="5"/>
+      <c r="H28" s="11">
+        <v>3.4482758620689653</v>
+      </c>
       <c r="I28" s="5">
         <v>202501</v>
       </c>
     </row>
-    <row r="29" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="29" spans="1:19" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>1</v>
       </c>
@@ -5816,12 +6599,14 @@
       <c r="G29" s="7">
         <v>275</v>
       </c>
-      <c r="H29" s="5"/>
+      <c r="H29" s="11">
+        <v>7.5054585152838431</v>
+      </c>
       <c r="I29" s="5">
         <v>202501</v>
       </c>
     </row>
-    <row r="30" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="30" spans="1:19" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>1</v>
       </c>
@@ -5843,12 +6628,14 @@
       <c r="G30" s="7">
         <v>263</v>
       </c>
-      <c r="H30" s="5"/>
+      <c r="H30" s="11">
+        <v>6.664977192093259</v>
+      </c>
       <c r="I30" s="5">
         <v>202501</v>
       </c>
     </row>
-    <row r="31" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="31" spans="1:19" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>1</v>
       </c>
@@ -5870,12 +6657,14 @@
       <c r="G31" s="7">
         <v>18</v>
       </c>
-      <c r="H31" s="5"/>
+      <c r="H31" s="11">
+        <v>5.6426332288401255</v>
+      </c>
       <c r="I31" s="5">
         <v>202501</v>
       </c>
     </row>
-    <row r="32" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="32" spans="1:19" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>1</v>
       </c>
@@ -5897,12 +6686,14 @@
       <c r="G32" s="7">
         <v>25</v>
       </c>
-      <c r="H32" s="5"/>
+      <c r="H32" s="11">
+        <v>7.1225071225071224</v>
+      </c>
       <c r="I32" s="5">
         <v>202501</v>
       </c>
     </row>
-    <row r="33" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="33" spans="1:9" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <v>1</v>
       </c>
@@ -5924,12 +6715,12 @@
       <c r="G33" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="H33" s="5"/>
+      <c r="H33" s="11"/>
       <c r="I33" s="5">
         <v>202501</v>
       </c>
     </row>
-    <row r="34" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="34" spans="1:9" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
         <v>1</v>
       </c>
@@ -5951,12 +6742,12 @@
       <c r="G34" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="H34" s="5"/>
+      <c r="H34" s="11"/>
       <c r="I34" s="5">
         <v>202501</v>
       </c>
     </row>
-    <row r="35" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="35" spans="1:9" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
         <v>1</v>
       </c>
@@ -5978,12 +6769,14 @@
       <c r="G35" s="7">
         <v>5</v>
       </c>
-      <c r="H35" s="5"/>
+      <c r="H35" s="11">
+        <v>2.0491803278688523</v>
+      </c>
       <c r="I35" s="5">
         <v>202501</v>
       </c>
     </row>
-    <row r="36" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="36" spans="1:9" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
         <v>1</v>
       </c>
@@ -6005,14 +6798,17 @@
       <c r="G36" s="7">
         <v>9</v>
       </c>
-      <c r="H36" s="5"/>
+      <c r="H36" s="11">
+        <v>3.5573122529644272</v>
+      </c>
       <c r="I36" s="5">
         <v>202501</v>
       </c>
     </row>
-    <row r="37" s="1" customFormat="1" ht="28.7982" customHeight="1"/>
+    <row r="37" spans="1:9" s="1" customFormat="1" ht="28.7" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <pageSetup paperSize="9" scale="100" orientation="portrait"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>